--- a/Instances/G5044425_Lumpy_b4_fe0_el_rk0_ll1_l40_HFalse_c0.xlsx
+++ b/Instances/G5044425_Lumpy_b4_fe0_el_rk0_ll1_l40_HFalse_c0.xlsx
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>132.2222222222222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>282.8571428571429</v>
+        <v>428.5714</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>806</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
